--- a/biology/Médecine/Consolidation_osseuse/Consolidation_osseuse.xlsx
+++ b/biology/Médecine/Consolidation_osseuse/Consolidation_osseuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La consolidation osseuse est un processus de reconstruction de l'os à la suite d'une fracture osseuse.
 </t>
@@ -511,16 +523,11 @@
           <t>Processus de consolidation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le processus de consolidation comporte 3 phases :
-La phase inflammatoire
-Elle débute immédiatement après la fracture avec formation d’un hématome périfracturaire (J0 à J20).
-La phase de prolifération (phase d’union)
-Formation du cal mou (fibreux) (J20 à J30)
-Formation du cal dur (ossification) (J30 à J60)
-La phase de remodelage osseux
-Elle a pour but d’adapter le segment osseux aux contraintes mécaniques (1 à 4 ans).
 </t>
         </is>
       </c>
@@ -546,10 +553,123 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Processus de consolidation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>La phase inflammatoire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle débute immédiatement après la fracture avec formation d’un hématome périfracturaire (J0 à J20).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Consolidation_osseuse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Consolidation_osseuse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Processus de consolidation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La phase de prolifération (phase d’union)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Formation du cal mou (fibreux) (J20 à J30)
+Formation du cal dur (ossification) (J30 à J60)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Consolidation_osseuse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Consolidation_osseuse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Processus de consolidation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La phase de remodelage osseux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a pour but d’adapter le segment osseux aux contraintes mécaniques (1 à 4 ans).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Consolidation_osseuse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Consolidation_osseuse</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut arguer que la douleur sans doute contraint l'animal ou la personne blessée à protéger le membre jusqu'à consolidation de la fracture et que le remodelage qui suit lisse toute « marche d'escalier » au niveau du foyer de fracture, même en cas de comminution. Mais le remodelage est lié à la mise en charge sans retard du segment fracturé (comme dans l'allongement progressif avec appui complet).
 La contribution du chirurgien dans le « traitement » de telles fractures « simples » du type supposé précédent peut selon le propos prêté par certains chirurgiens américains contemporains à Voltaire se réduire à « amuser le blessé pendant que la nature guérit la fracture »[réf. nécessaire].
